--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Project Name</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Result:</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -890,41 +893,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -934,90 +907,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,46 +938,124 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,13 +1065,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1751,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,10 +1894,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="30">
+        <v>1</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2124,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,118 +2159,118 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="130" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="61"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="63"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="69"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="131" t="s">
+      <c r="K7" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="85" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="65"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="50"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="65"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="28"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
@@ -2271,42 +2278,42 @@
       <c r="AI10" s="6"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="50"/>
-      <c r="O11" s="71" t="s">
+      <c r="K11" s="46"/>
+      <c r="L11" s="45"/>
+      <c r="O11" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="72" t="s">
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="71" t="s">
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="73"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="88"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2314,36 +2321,36 @@
       <c r="AJ11" s="6"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="49"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="49"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="44"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="44"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
@@ -2351,283 +2358,291 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="63"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="64" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="59"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="57"/>
-      <c r="U14" s="70"/>
+      <c r="L14" s="47"/>
+      <c r="U14" s="57"/>
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="1:36" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="105"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="67">
+        <v>10</v>
+      </c>
+      <c r="D15" s="69">
+        <v>5</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="71">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="77" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="104"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="127" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="128"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="47"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="47"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="95"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="47"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="47"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="47"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:D37"/>
-    <mergeCell ref="E34:G37"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:D41"/>
     <mergeCell ref="E38:G41"/>
@@ -2639,20 +2654,18 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:D33"/>
     <mergeCell ref="E30:G33"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:D37"/>
+    <mergeCell ref="E34:G37"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Project Name</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>comptability</t>
   </si>
 </sst>
 </file>
@@ -957,6 +963,102 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,42 +1066,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,66 +1102,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1755,7 +1761,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,11 +1904,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2159,44 +2169,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="95" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="132"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2207,11 +2217,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2226,11 +2236,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2241,11 +2251,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2257,11 +2267,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2281,39 +2291,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="86" t="s">
+      <c r="Y11" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2324,11 +2334,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2358,14 +2368,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2434,21 +2444,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2458,202 +2468,183 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="120"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="116"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="93"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="95"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="95"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="97"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="93"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="95"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="95"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="97"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="93"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="95"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="95"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="109"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="97"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="95"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="95"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="109"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="97"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2666,6 +2657,25 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Project Name</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>comptability</t>
+  </si>
+  <si>
+    <t>usability</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t>logout</t>
   </si>
 </sst>
 </file>
@@ -963,37 +972,94 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,51 +1069,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,49 +1080,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1761,7 +1770,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1947,9 @@
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1966,8 +1977,12 @@
     <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2169,44 +2184,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="131" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="96"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2217,11 +2232,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2236,11 +2251,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2251,11 +2266,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2267,11 +2282,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2291,39 +2306,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="118" t="s">
+      <c r="O11" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="119" t="s">
+      <c r="T11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="118" t="s">
+      <c r="Y11" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="88"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2334,11 +2349,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2368,14 +2383,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2444,21 +2459,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2468,183 +2483,202 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="115" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="116"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="107"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="109"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="111"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="107"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="95"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="109"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="111"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="107"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="109"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="109"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="111"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="107"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="109"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="109"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="111"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2657,25 +2691,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Project Name</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>logout</t>
+  </si>
+  <si>
+    <t>Registration</t>
   </si>
 </sst>
 </file>
@@ -972,6 +975,102 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,42 +1078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,66 +1114,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1440,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1541,9 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
@@ -1546,7 +1551,9 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="6"/>
@@ -1554,7 +1561,9 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="6"/>
@@ -1769,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2184,44 +2193,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="95" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="132"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2232,11 +2241,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2251,11 +2260,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2266,11 +2275,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2282,11 +2291,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2306,39 +2315,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="86" t="s">
+      <c r="Y11" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2349,11 +2358,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2383,14 +2392,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2459,21 +2468,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2483,202 +2492,183 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="120"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="116"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="93"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="95"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="95"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="97"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="93"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="95"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="95"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="97"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="93"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="95"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="95"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="109"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="97"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="95"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="95"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="109"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="97"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2691,6 +2681,25 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -975,37 +975,94 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,51 +1072,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,49 +1083,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1539,9 @@
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
         <v>69</v>
@@ -1549,7 +1551,9 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
       <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>63</v>
@@ -1559,7 +1563,9 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="22" t="s">
         <v>68</v>
@@ -1569,7 +1575,9 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11">
+        <v>4</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
@@ -1577,7 +1585,9 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>5</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
@@ -1585,7 +1595,9 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11">
+        <v>6</v>
+      </c>
       <c r="B19" s="11"/>
       <c r="C19" s="5"/>
       <c r="D19" s="11"/>
@@ -1593,7 +1605,9 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11">
+        <v>7</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="5"/>
       <c r="D20" s="11"/>
@@ -1601,7 +1615,9 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11">
+        <v>8</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="5"/>
       <c r="D21" s="11"/>
@@ -1609,7 +1625,9 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11">
+        <v>9</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="5"/>
       <c r="D22" s="11"/>
@@ -1617,7 +1635,9 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11">
+        <v>10</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="11"/>
@@ -2193,44 +2213,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="131" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="96"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2241,11 +2261,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2260,11 +2280,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2275,11 +2295,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2291,11 +2311,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2315,39 +2335,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="118" t="s">
+      <c r="O11" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="119" t="s">
+      <c r="T11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="118" t="s">
+      <c r="Y11" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="88"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2358,11 +2378,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2392,14 +2412,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2468,21 +2488,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2492,183 +2512,202 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="115" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="116"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="107"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="109"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="111"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="107"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="95"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="109"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="111"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="107"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="109"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="109"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="111"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="107"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="109"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="109"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="111"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2681,25 +2720,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Project Name</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Registration</t>
+  </si>
+  <si>
+    <t>SRS</t>
   </si>
 </sst>
 </file>
@@ -975,6 +978,102 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,42 +1081,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,66 +1117,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,7 +1447,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1545,9 @@
       <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
@@ -1554,7 +1559,9 @@
       <c r="A15" s="11">
         <v>2</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>63</v>
       </c>
@@ -1566,7 +1573,9 @@
       <c r="A16" s="12">
         <v>3</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="22" t="s">
         <v>68</v>
       </c>
@@ -1578,7 +1587,9 @@
       <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2213,44 +2224,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="95" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="132"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2261,11 +2272,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2280,11 +2291,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2295,11 +2306,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2311,11 +2322,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2335,39 +2346,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="86" t="s">
+      <c r="Y11" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2378,11 +2389,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2412,14 +2423,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2488,21 +2499,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2512,202 +2523,183 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="120"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="116"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="93"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="95"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="95"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="97"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="93"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="95"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="95"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="97"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="93"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="95"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="95"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="109"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="97"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="95"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="95"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="109"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="97"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2720,6 +2712,25 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Project Name</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>SRS</t>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
 </sst>
 </file>
@@ -978,37 +987,94 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,51 +1084,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,49 +1095,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1447,7 +1456,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1560,9 @@
       <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
     </row>
@@ -1565,7 +1576,9 @@
       <c r="C15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="6"/>
     </row>
@@ -1579,7 +1592,9 @@
       <c r="C16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="6"/>
     </row>
@@ -1591,7 +1606,9 @@
         <v>70</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="6"/>
     </row>
@@ -2224,44 +2241,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="131" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="96"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2272,11 +2289,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2291,11 +2308,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2306,11 +2323,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2322,11 +2339,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2346,39 +2363,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="118" t="s">
+      <c r="O11" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="119" t="s">
+      <c r="T11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="118" t="s">
+      <c r="Y11" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="88"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2389,11 +2406,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2423,14 +2440,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2499,21 +2516,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2523,183 +2540,202 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="115" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="116"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="107"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="109"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="111"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="107"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="95"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="109"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="111"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="107"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="109"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="109"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="111"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="107"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="109"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="109"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="111"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2712,25 +2748,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>Project Name</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>udemi</t>
+  </si>
+  <si>
+    <t>supti howlader joya</t>
   </si>
 </sst>
 </file>
@@ -987,6 +993,102 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,42 +1096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,66 +1132,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1456,7 +1462,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1483,9 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6"/>
     </row>
@@ -1485,7 +1493,9 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="6"/>
     </row>
@@ -1493,7 +1503,9 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="F5" s="19"/>
@@ -1563,7 +1575,9 @@
       <c r="D14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10">
+        <v>15</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,44 +2255,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="95" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="132"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2289,11 +2303,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2308,11 +2322,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2323,11 +2337,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2339,11 +2353,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2363,39 +2377,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="86" t="s">
+      <c r="Y11" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2406,11 +2420,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2440,14 +2454,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2516,21 +2530,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2540,202 +2554,183 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="120"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="116"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="93"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="95"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="95"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="97"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="93"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="95"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="95"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="97"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="93"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="95"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="95"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="109"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="97"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="93"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="95"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="95"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="109"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="97"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2748,6 +2743,25 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/First Test Case.xlsx
+++ b/First Test Case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>Project Name</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>supti howlader joya</t>
+  </si>
+  <si>
+    <t>p3</t>
   </si>
 </sst>
 </file>
@@ -993,37 +996,94 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,51 +1093,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,49 +1104,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1461,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1635,9 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="6"/>
     </row>
@@ -1642,7 +1647,9 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="6"/>
     </row>
@@ -1652,7 +1659,9 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="6"/>
     </row>
@@ -1662,7 +1671,9 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="6"/>
     </row>
@@ -1672,7 +1683,9 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="6"/>
     </row>
@@ -1682,12 +1695,16 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="11">
+        <v>11</v>
+      </c>
       <c r="B24" s="11"/>
       <c r="C24" s="5"/>
       <c r="D24" s="11"/>
@@ -1695,7 +1712,9 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>12</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="6"/>
       <c r="D25" s="12"/>
@@ -1703,7 +1722,9 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="11">
+        <v>13</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="5"/>
       <c r="D26" s="11"/>
@@ -1711,7 +1732,9 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>14</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="6"/>
       <c r="D27" s="12"/>
@@ -1719,7 +1742,9 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="10">
+        <v>15</v>
+      </c>
       <c r="B28" s="10"/>
       <c r="C28" s="8"/>
       <c r="D28" s="10"/>
@@ -1727,7 +1752,9 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="11">
+        <v>16</v>
+      </c>
       <c r="B29" s="11"/>
       <c r="C29" s="5"/>
       <c r="D29" s="11"/>
@@ -1735,7 +1762,9 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="13">
+        <v>17</v>
+      </c>
       <c r="B30" s="13"/>
       <c r="C30" s="7"/>
       <c r="D30" s="13"/>
@@ -2255,44 +2284,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="131" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
-      <c r="K5" s="96"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -2303,11 +2332,11 @@
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2322,11 +2351,11 @@
       <c r="B8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2337,11 +2366,11 @@
       <c r="B9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2353,11 +2382,11 @@
       <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2377,39 +2406,39 @@
       <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="46"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="118" t="s">
+      <c r="O11" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="59"/>
-      <c r="T11" s="119" t="s">
+      <c r="T11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
       <c r="X11" s="58"/>
-      <c r="Y11" s="118" t="s">
+      <c r="Y11" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="88"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2420,11 +2449,11 @@
       <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2454,14 +2483,14 @@
       <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2530,21 +2559,21 @@
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
         <v>51</v>
@@ -2554,183 +2583,202 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="78"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="115" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="116"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="107"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="109"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="111"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="107"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="95"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="109"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="111"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="107"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="109"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="109"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="111"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="107"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="109"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="109"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="111"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D33"/>
+    <mergeCell ref="E30:G33"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="Y11:AE11"/>
@@ -2743,25 +2791,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D41"/>
-    <mergeCell ref="E38:G41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:D29"/>
-    <mergeCell ref="E26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D33"/>
-    <mergeCell ref="E30:G33"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
